--- a/90 Excel Config.xlsx
+++ b/90 Excel Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\P_SCRIP\Em-ordenes-serv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05552F9F-0AC1-4413-8DE5-40E188D63E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB659E-25FC-4995-9CA0-1E2A33A79F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="585" windowWidth="24615" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4500" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -192,13 +192,13 @@
     <t>Mocca12%</t>
   </si>
   <si>
-    <t>C:\\Users\\user\\Desktop\\P_SCRIP\\Em-ordenes-serv\\MAPFRE\\</t>
-  </si>
-  <si>
-    <t>C:\\Users\\user\\Desktop\\P_SCRIP\\Em-ordenes-serv\\</t>
-  </si>
-  <si>
-    <t>C:\\Users\\user\\Desktop\\P_SCRIP\\Em-ordenes-serv\\epsbackup\\</t>
+    <t>F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\epsbackup\</t>
+  </si>
+  <si>
+    <t>F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\MAPFRE\</t>
+  </si>
+  <si>
+    <t>F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="E5:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -658,12 +658,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="5:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -680,7 +680,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>50</v>
@@ -823,17 +823,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cce51b3a-0d18-4757-846e-887856cc2bc1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002CE55FFC83F1ED43BF3D77CEA18BFB6F" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9821b0aca38c5f16f76e23b306157d65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6" xmlns:ns3="cce51b3a-0d18-4757-846e-887856cc2bc1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="648344ac5dddc8806b9d80526bbe1192" ns2:_="" ns3:_="">
     <xsd:import namespace="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6"/>
@@ -1028,6 +1017,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cce51b3a-0d18-4757-846e-887856cc2bc1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFCB2BF-CD3E-4DEB-BCF7-0ACA4BCD2AED}">
   <ds:schemaRefs>
@@ -1037,17 +1037,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97004C05-A2A8-47FB-9D20-F4434F261E72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6"/>
-    <ds:schemaRef ds:uri="cce51b3a-0d18-4757-846e-887856cc2bc1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33D4D9C-C7E8-4FF7-83AE-FA784A04E919}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1066,6 +1055,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97004C05-A2A8-47FB-9D20-F4434F261E72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6"/>
+    <ds:schemaRef ds:uri="cce51b3a-0d18-4757-846e-887856cc2bc1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{defa4170-0d19-0005-0004-bc88714345d2}" enabled="1" method="Standard" siteId="{3b16616d-f174-497a-a1ae-900d85106996}" contentBits="0" removed="0"/>

--- a/90 Excel Config.xlsx
+++ b/90 Excel Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB659E-25FC-4995-9CA0-1E2A33A79F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CADD11-A8A6-4552-B84F-58C705E2FF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4500" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="E5:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,12 +814,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cce51b3a-0d18-4757-846e-887856cc2bc1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,20 +1020,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cce51b3a-0d18-4757-846e-887856cc2bc1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFCB2BF-CD3E-4DEB-BCF7-0ACA4BCD2AED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97004C05-A2A8-47FB-9D20-F4434F261E72}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6"/>
+    <ds:schemaRef ds:uri="cce51b3a-0d18-4757-846e-887856cc2bc1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1056,12 +1059,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97004C05-A2A8-47FB-9D20-F4434F261E72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFCB2BF-CD3E-4DEB-BCF7-0ACA4BCD2AED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0e320ed7-c0cd-45f9-b6ac-8e5f4e5604e6"/>
-    <ds:schemaRef ds:uri="cce51b3a-0d18-4757-846e-887856cc2bc1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
